--- a/biology/Botanique/Parc_des_Cropettes/Parc_des_Cropettes.xlsx
+++ b/biology/Botanique/Parc_des_Cropettes/Parc_des_Cropettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Cropettes Écouter est un jardin public situé dans le quartier des Cropettes à Genève, en Suisse.
@@ -512,9 +524,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc prend le nom donné à son environnement appelée Les Cropettes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc prend le nom donné à son environnement appelée Les Cropettes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1858, la petite-nièce de Léonard Baulacre lègue un jardin à la ville de Genève[1]. Une propriété voisine appartenant à la famille Croppet, originaire des Dombes, est acquise par la ville en 1873 grâce au legs du duc Charles II de Brunswick[1].
-Le 27 janvier 2016, une plaque commémorative est inaugurée pour rappeler que l'école installée dans le parc a servi de centre de triage accueillant 2 526 réfugiés dont Rosette Wolczak durant la Seconde Guerre mondiale[2].
-Le 16 septembre 2017, le parc accueille le festival Alternatiba[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1858, la petite-nièce de Léonard Baulacre lègue un jardin à la ville de Genève. Une propriété voisine appartenant à la famille Croppet, originaire des Dombes, est acquise par la ville en 1873 grâce au legs du duc Charles II de Brunswick.
+Le 27 janvier 2016, une plaque commémorative est inaugurée pour rappeler que l'école installée dans le parc a servi de centre de triage accueillant 2 526 réfugiés dont Rosette Wolczak durant la Seconde Guerre mondiale.
+Le 16 septembre 2017, le parc accueille le festival Alternatiba.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première école enfantine s'installe dans l'ancienne maison de maître avant qu'une autre ne soit construite en 1889-1890. Une école primaire de style Heimatschutz est construite en 1902[4] par Marc Camoletti. Celle-ci se trouve dans le haut du parc[5].
-Le 4 octobre 2015, un bâtiment parascolaire est inauguré à l'angle ouest du parc[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première école enfantine s'installe dans l'ancienne maison de maître avant qu'une autre ne soit construite en 1889-1890. Une école primaire de style Heimatschutz est construite en 1902 par Marc Camoletti. Celle-ci se trouve dans le haut du parc.
+Le 4 octobre 2015, un bâtiment parascolaire est inauguré à l'angle ouest du parc.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un étang abrite des canards[5].
-La statue d'une jeune fille brandissant un poisson s'y trouve[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un étang abrite des canards.
+La statue d'une jeune fille brandissant un poisson s'y trouve.
 </t>
         </is>
       </c>
